--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC790249-92FE-48B5-9A40-96B3468EC8F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE358EF-D1DA-476A-B964-64817CF2D862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="731" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="584">
   <si>
     <t/>
   </si>
@@ -2134,6 +2134,10 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4372,9 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C81F1F-601C-4E41-A6BD-482831B6D35C}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6441,7 +6443,7 @@
         <v>557</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE358EF-D1DA-476A-B964-64817CF2D862}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B247361-C76E-4C64-ADF0-03A646F5E5ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="731" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="731" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -46,8 +46,8 @@
     <sheet name="Font" sheetId="69" r:id="rId31"/>
     <sheet name="Structured_Annotations" sheetId="68" r:id="rId32"/>
     <sheet name="XML_Annotation" sheetId="59" r:id="rId33"/>
-    <sheet name="Unit" sheetId="66" r:id="rId34"/>
-    <sheet name="size" sheetId="67" r:id="rId35"/>
+    <sheet name="size" sheetId="67" r:id="rId34"/>
+    <sheet name="width" sheetId="70" r:id="rId35"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="572">
   <si>
     <t/>
   </si>
@@ -1551,18 +1551,6 @@
   </si>
   <si>
     <t>&lt;test4/&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1573,63 +1561,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1657,10 +1588,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1704,9 +1631,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/unit/</t>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/regionOfInterest/</t>
   </si>
   <si>
@@ -2013,14 +1937,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:pt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"point"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Structured Annotations</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2121,23 +2037,53 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PATO:0000117</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:1pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:2pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>foaf:Person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:2pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2145,7 +2091,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2174,13 +2120,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2214,7 +2153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,9 +2174,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2567,14 +2503,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2622,7 +2558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2630,7 +2566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2638,39 +2574,39 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>432</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>136</v>
       </c>
@@ -2678,7 +2614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>388</v>
       </c>
@@ -2686,7 +2622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>390</v>
       </c>
@@ -2694,7 +2630,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>392</v>
       </c>
@@ -2702,7 +2638,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>384</v>
       </c>
@@ -2710,7 +2646,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>404</v>
       </c>
@@ -2718,7 +2654,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
@@ -2726,7 +2662,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>138</v>
       </c>
@@ -2734,7 +2670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2742,7 +2678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
@@ -2750,52 +2686,52 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>461</v>
+        <v>570</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>462</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2811,15 +2747,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2830,14 +2766,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2846,7 +2782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2857,36 +2793,36 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -2901,16 +2837,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +2860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2934,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2960,45 +2896,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>241</v>
@@ -3016,19 +2952,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3051,7 +2987,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +2998,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3019,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3106,13 +3042,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>274</v>
@@ -3124,55 +3060,55 @@
         <v>276</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3185,20 +3121,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A38DA5-11CC-4BA0-B6A3-92FB1426AC0C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3174,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3257,7 +3195,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3274,18 +3212,18 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>562</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>243</v>
@@ -3300,12 +3238,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>248</v>
@@ -3320,7 +3258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>247</v>
       </c>
@@ -3331,12 +3269,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>254</v>
@@ -3351,12 +3289,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>259</v>
@@ -3368,12 +3306,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>262</v>
@@ -3397,16 +3335,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3420,7 +3358,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3366,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3440,7 +3378,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3454,12 +3392,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>397</v>
@@ -3477,19 +3415,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3512,7 +3450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3523,7 +3461,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3567,12 +3505,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
@@ -3599,15 +3537,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3618,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3627,7 +3565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3647,7 +3585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>280</v>
       </c>
@@ -3667,21 +3605,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3710,7 +3648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3725,7 +3663,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3781,12 +3719,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>293</v>
@@ -3807,7 +3745,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>159</v>
       </c>
@@ -3815,7 +3753,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
@@ -3835,21 +3773,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3893,7 +3831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3911,7 +3849,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -3923,37 +3861,37 @@
         <v>408</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3967,7 +3905,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>411</v>
@@ -3991,18 +3929,18 @@
         <v>69</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
         <v>409</v>
@@ -4038,7 +3976,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>281</v>
       </c>
@@ -4049,7 +3987,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>281</v>
       </c>
@@ -4072,17 +4010,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4108,7 +4046,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4123,7 +4061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4140,12 +4078,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>296</v>
@@ -4154,12 +4092,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>297</v>
@@ -4168,12 +4106,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>298</v>
@@ -4194,17 +4132,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4221,7 +4159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4230,7 +4168,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4245,7 +4183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4262,12 +4200,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>150</v>
@@ -4288,15 +4226,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4307,14 +4245,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4323,7 +4261,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4334,7 +4272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
@@ -4342,7 +4280,7 @@
         <v>-1147483648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>297</v>
       </c>
@@ -4350,7 +4288,7 @@
         <v>-1474836488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>298</v>
       </c>
@@ -4358,7 +4296,7 @@
         <v>-2144364811</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
@@ -4378,17 +4316,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4405,7 +4343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4414,7 +4352,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4429,7 +4367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4443,10 +4381,10 @@
         <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>287</v>
       </c>
@@ -4460,7 +4398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>289</v>
       </c>
@@ -4474,7 +4412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>291</v>
       </c>
@@ -4500,16 +4438,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4526,7 +4464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4537,7 +4475,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4552,7 +4490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4569,23 +4507,23 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>313</v>
@@ -4594,34 +4532,34 @@
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>319</v>
@@ -4639,15 +4577,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4658,14 +4596,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4674,7 +4612,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4685,7 +4623,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>312</v>
@@ -4694,7 +4632,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>314</v>
       </c>
@@ -4702,7 +4640,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>315</v>
       </c>
@@ -4710,7 +4648,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>315</v>
       </c>
@@ -4718,7 +4656,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>315</v>
       </c>
@@ -4726,7 +4664,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>315</v>
       </c>
@@ -4734,7 +4672,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>315</v>
       </c>
@@ -4742,7 +4680,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>315</v>
       </c>
@@ -4750,7 +4688,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>315</v>
       </c>
@@ -4758,7 +4696,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>315</v>
       </c>
@@ -4766,7 +4704,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>317</v>
       </c>
@@ -4774,7 +4712,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>319</v>
       </c>
@@ -4782,7 +4720,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>319</v>
       </c>
@@ -4802,24 +4740,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="17.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="17.375" style="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="17.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4842,7 +4780,7 @@
         <v>340</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>344</v>
@@ -4860,7 +4798,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4877,7 +4815,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -4898,7 +4836,7 @@
         <v>352</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>356</v>
@@ -4916,7 +4854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -4933,13 +4871,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>361</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>363</v>
@@ -4948,7 +4886,7 @@
         <v>149</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>149</v>
@@ -4957,12 +4895,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4974,12 +4912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -4994,7 +4932,7 @@
         <v>413</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>302</v>
@@ -5003,16 +4941,16 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>364</v>
       </c>
@@ -5023,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>365</v>
       </c>
@@ -5034,7 +4972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>366</v>
       </c>
@@ -5045,7 +4983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>367</v>
       </c>
@@ -5056,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>368</v>
       </c>
@@ -5067,7 +5005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>369</v>
       </c>
@@ -5078,7 +5016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>370</v>
       </c>
@@ -5089,7 +5027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>371</v>
       </c>
@@ -5100,7 +5038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>372</v>
       </c>
@@ -5111,7 +5049,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>373</v>
       </c>
@@ -5122,7 +5060,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>374</v>
       </c>
@@ -5133,7 +5071,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>375</v>
       </c>
@@ -5156,19 +5094,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5200,7 +5138,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5214,7 +5152,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5244,7 +5182,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -5276,12 +5214,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5299,7 +5237,7 @@
         <v>386</v>
       </c>
       <c r="I5" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>380</v>
@@ -5317,41 +5255,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5363,36 +5301,36 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
@@ -5413,7 +5351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>380</v>
       </c>
@@ -5448,19 +5386,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5480,13 +5418,13 @@
         <v>340</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5498,7 +5436,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5516,13 +5454,13 @@
         <v>352</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -5542,18 +5480,18 @@
         <v>378</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5565,18 +5503,18 @@
         <v>386</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="H5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5585,15 +5523,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5602,15 +5540,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5619,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5634,18 +5572,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5665,7 +5603,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5675,7 +5613,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5693,7 +5631,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -5710,15 +5648,15 @@
         <v>363</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>364</v>
@@ -5727,10 +5665,10 @@
         <v>306</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>328</v>
       </c>
@@ -5738,7 +5676,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>328</v>
       </c>
@@ -5746,7 +5684,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
@@ -5766,19 +5704,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5804,7 +5742,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -5816,7 +5754,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -5840,7 +5778,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -5863,15 +5801,15 @@
         <v>363</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>368</v>
@@ -5886,10 +5824,10 @@
         <v>307</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
@@ -5897,7 +5835,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>329</v>
       </c>
@@ -5905,7 +5843,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>329</v>
       </c>
@@ -5913,12 +5851,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>372</v>
@@ -5930,10 +5868,10 @@
         <v>308</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>330</v>
       </c>
@@ -5941,7 +5879,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>330</v>
       </c>
@@ -5949,7 +5887,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>330</v>
       </c>
@@ -5969,16 +5907,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5995,7 +5933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6004,7 +5942,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6019,7 +5957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6036,12 +5974,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>159</v>
@@ -6062,19 +6000,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6109,7 +6047,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6124,7 +6062,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6157,7 +6095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6189,15 +6127,15 @@
         <v>363</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6221,15 +6159,15 @@
         <v>303</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6250,15 +6188,15 @@
         <v>304</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6279,7 +6217,7 @@
         <v>305</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -6294,21 +6232,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>343</v>
@@ -6320,7 +6258,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6329,7 +6267,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6344,12 +6282,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>362</v>
@@ -6361,10 +6299,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>415</v>
@@ -6373,13 +6311,13 @@
         <v>414</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>561</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>416</v>
@@ -6387,7 +6325,7 @@
       <c r="D6" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6401,78 +6339,78 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>294</v>
@@ -6491,16 +6429,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6514,7 +6452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6522,7 +6460,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6534,7 +6472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6548,45 +6486,45 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>421</v>
@@ -6599,40 +6537,37 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216BAB6-E9AF-4820-8834-32581A16D141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E18EEC-EA73-428B-AD02-900834A69D6F}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6643,118 +6578,110 @@
         <v>426</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>553</v>
+        <v>534</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E18EEC-EA73-428B-AD02-900834A69D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B99D3DC-37DA-4DED-AAD2-14A90AE25F41}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6763,54 +6690,43 @@
         <v>301</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>563</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>285</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>564</v>
       </c>
       <c r="C5">
-        <v>100000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>552</v>
+      <c r="D6" s="4" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6826,19 +6742,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6861,7 +6777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -6874,7 +6790,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -6895,7 +6811,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -6918,12 +6834,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>170</v>
@@ -6938,12 +6854,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6959,19 +6875,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6997,7 +6913,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7009,7 +6925,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -7033,7 +6949,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -7059,12 +6975,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>185</v>
@@ -7079,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7094,17 +7010,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7121,7 +7037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7130,7 +7046,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -7145,7 +7061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -7162,12 +7078,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>159</v>
@@ -7188,17 +7104,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7215,7 +7131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7226,7 +7142,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -7241,7 +7157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -7258,12 +7174,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>192</v>
@@ -7284,22 +7200,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7331,7 +7247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7349,7 +7265,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -7379,7 +7295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -7411,7 +7327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>204</v>
       </c>
@@ -7419,13 +7335,13 @@
         <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>169</v>
@@ -7440,7 +7356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
@@ -7448,13 +7364,13 @@
         <v>210</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>169</v>
@@ -7469,7 +7385,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>209</v>
       </c>
@@ -7477,7 +7393,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>214</v>
       </c>
@@ -7485,13 +7401,13 @@
         <v>215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>217</v>
@@ -7503,7 +7419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>219</v>
       </c>
@@ -7511,13 +7427,13 @@
         <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>169</v>
@@ -7545,17 +7461,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7572,7 +7488,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7583,7 +7499,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -7598,7 +7514,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -7615,12 +7531,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>227</v>
@@ -7629,12 +7545,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>229</v>
@@ -7643,12 +7559,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>231</v>
@@ -7657,12 +7573,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>233</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B247361-C76E-4C64-ADF0-03A646F5E5ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D45119-DC38-4C99-85CB-69EC8EFC837B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="731" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="628">
   <si>
     <t/>
   </si>
@@ -491,10 +491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/transformations-upgrade/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/plate/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -527,10 +523,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[dataset:project:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>project:project0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -560,10 +552,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
@@ -596,14 +584,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plateAcquisition:plate0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate:plate1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -645,10 +625,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
@@ -658,10 +634,6 @@
     <t>:index</t>
   </si>
   <si>
-    <t>[xmlAnnotation:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Plate Acquision</t>
   </si>
   <si>
@@ -715,14 +687,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -735,14 +699,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -755,14 +711,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -775,14 +723,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Reagent Set</t>
   </si>
   <si>
@@ -861,14 +801,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenterGroup:experimenterGroup1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -881,18 +813,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenterGroup:experimenterGroup2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -905,14 +825,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenterGroup:experimenterGroup3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1002,10 +914,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>roi:roi0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1022,30 +930,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1054,10 +938,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:P0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:AcquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1328,54 +1208,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape4:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1392,18 +1224,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transform:ractangle:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontFamily</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:WS0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>marker:arrow</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1453,10 +1277,6 @@
   </si>
   <si>
     <t>instrument:instrument0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objective:0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1965,10 +1785,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[font:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>font</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2030,10 +1846,6 @@
   </si>
   <si>
     <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[font:shape1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2084,6 +1896,375 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/person/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/objective/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/detector/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/pixels/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/channel/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/detectorSettings/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/bindata/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/point/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/rectangle/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/transform/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/label/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/polygon/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/polyline/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/line/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/font/</t>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/xmlAnnotation/</t>
+  </si>
+  <si>
+    <t>dataset:project0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotation1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen0</t>
+  </si>
+  <si>
+    <t>protocol:screen0</t>
+  </si>
+  <si>
+    <t>reagentSet:screen1</t>
+  </si>
+  <si>
+    <t>protocol:screen1</t>
+  </si>
+  <si>
+    <t>reagentSet:screen2</t>
+  </si>
+  <si>
+    <t>protocol:screen2</t>
+  </si>
+  <si>
+    <t>reagentSet:screen3</t>
+  </si>
+  <si>
+    <t>protocol:screen3</t>
+  </si>
+  <si>
+    <t>person:experimenter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotationP0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape0</t>
+  </si>
+  <si>
+    <t>point:shape1</t>
+  </si>
+  <si>
+    <t>point:shape4:0</t>
+  </si>
+  <si>
+    <t>point:shape4:1</t>
+  </si>
+  <si>
+    <t>point:shape4:2</t>
+  </si>
+  <si>
+    <t>point:shape4:3</t>
+  </si>
+  <si>
+    <t>point:shape5:0</t>
+  </si>
+  <si>
+    <t>point:shape5:1</t>
+  </si>
+  <si>
+    <t>point:shape5:2</t>
+  </si>
+  <si>
+    <t>point:shape5:3</t>
+  </si>
+  <si>
+    <t>point:shape6:0</t>
+  </si>
+  <si>
+    <t>point:shape6:1</t>
+  </si>
+  <si>
+    <t>point:shape6:2</t>
+  </si>
+  <si>
+    <t>point:shape6:3</t>
+  </si>
+  <si>
+    <t>rectangle:shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:rectangle_shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape3</t>
+  </si>
+  <si>
+    <t>font:shape3</t>
+  </si>
+  <si>
+    <t>label:shape11</t>
+  </si>
+  <si>
+    <t>label:shape12</t>
+  </si>
+  <si>
+    <t>label:shape13</t>
+  </si>
+  <si>
+    <t>polygon:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline:shape5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline:shape6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:xmlAnnotationWS0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/dataset/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/well/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/wellSample/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/plateAcquisition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/reagentSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/protocol/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2499,7 +2680,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2576,31 +2757,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>129</v>
@@ -2616,122 +2797,298 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>570</v>
+        <v>399</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>571</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -2760,10 +3117,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2779,7 +3136,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2787,42 +3144,42 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -2851,10 +3208,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2876,7 +3233,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -2887,10 +3244,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -2898,46 +3255,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>567</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>569</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2969,22 +3326,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3004,19 +3361,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3024,10 +3381,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -3039,76 +3396,76 @@
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>251</v>
+        <v>570</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>245</v>
+      <c r="B6" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>250</v>
+      <c r="B7" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>252</v>
+      <c r="B8" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>257</v>
+      <c r="B9" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>246</v>
+      <c r="B10" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>256</v>
+      <c r="B11" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3121,9 +3478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A38DA5-11CC-4BA0-B6A3-92FB1426AC0C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3132,7 +3487,7 @@
     <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3144,7 +3499,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
@@ -3156,7 +3511,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3180,7 +3535,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -3192,7 +3547,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3203,7 +3558,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -3212,115 +3567,115 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>562</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -3352,10 +3707,10 @@
         <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3372,10 +3727,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3386,21 +3741,21 @@
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>397</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3773,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3435,13 +3790,13 @@
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>36</v>
@@ -3467,13 +3822,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
@@ -3490,13 +3845,13 @@
         <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>34</v>
@@ -3507,16 +3862,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>397</v>
+        <v>577</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -3550,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
@@ -3579,7 +3934,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -3587,10 +3942,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3611,11 +3966,11 @@
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3627,7 +3982,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
@@ -3669,7 +4024,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>19</v>
@@ -3698,7 +4053,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -3721,44 +4076,44 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>578</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>294</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3782,8 +4137,8 @@
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3795,10 +4150,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>63</v>
@@ -3855,40 +4210,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3899,19 +4254,19 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>69</v>
@@ -3929,30 +4284,30 @@
         <v>69</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>578</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -3970,32 +4325,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>286</v>
+        <v>580</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>287</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>578</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>288</v>
+        <v>582</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>289</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>578</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>290</v>
+        <v>584</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -4013,7 +4368,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -4028,7 +4383,7 @@
         <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>73</v>
@@ -4052,7 +4407,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>75</v>
@@ -4069,55 +4424,55 @@
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>580</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>288</v>
+        <v>582</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>584</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4137,8 +4492,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4147,13 +4502,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>26</v>
@@ -4174,10 +4529,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
@@ -4188,13 +4543,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
@@ -4202,16 +4557,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>556</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4239,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4258,7 +4613,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4269,12 +4624,12 @@
         <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1">
         <v>-1147483648</v>
@@ -4282,7 +4637,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1">
         <v>-1474836488</v>
@@ -4290,7 +4645,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1">
         <v>-2144364811</v>
@@ -4298,7 +4653,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>-2147483648</v>
@@ -4319,7 +4674,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -4381,18 +4736,18 @@
         <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>560</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>581</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4400,13 +4755,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>583</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4414,13 +4769,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4455,7 +4810,7 @@
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -4481,7 +4836,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -4498,7 +4853,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -4509,60 +4864,60 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4590,10 +4945,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4609,7 +4964,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4620,112 +4975,112 @@
         <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4765,37 +5120,37 @@
         <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -4821,37 +5176,37 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -4862,7 +5217,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -4871,36 +5226,36 @@
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>324</v>
+        <v>587</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4914,10 +5269,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>588</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -4926,25 +5281,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -4952,7 +5307,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>589</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -4963,7 +5318,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>590</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -4974,7 +5329,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>591</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -4985,7 +5340,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>592</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -4996,7 +5351,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>593</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5007,7 +5362,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>369</v>
+        <v>594</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5018,7 +5373,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>370</v>
+        <v>595</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5029,7 +5384,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>596</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5040,7 +5395,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>597</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5051,7 +5406,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>373</v>
+        <v>598</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5062,7 +5417,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>374</v>
+        <v>599</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5073,7 +5428,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5097,12 +5452,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5114,13 +5469,13 @@
         <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>99</v>
@@ -5129,13 +5484,13 @@
         <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5158,7 +5513,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>96</v>
@@ -5173,13 +5528,13 @@
         <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -5190,7 +5545,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -5205,21 +5560,21 @@
         <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>601</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5234,13 +5589,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="I5" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>380</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5258,9 +5613,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -5268,25 +5623,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>546</v>
+        <v>500</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>547</v>
+        <v>501</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>548</v>
+        <v>502</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5307,22 +5662,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5330,7 +5685,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
@@ -5353,7 +5708,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>380</v>
+        <v>602</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5406,22 +5761,22 @@
         <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>543</v>
+        <v>497</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5442,7 +5797,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>96</v>
@@ -5451,13 +5806,13 @@
         <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5468,7 +5823,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -5477,21 +5832,21 @@
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>603</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5500,21 +5855,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="H5" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>605</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5523,15 +5878,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>606</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5540,15 +5895,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>607</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5557,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5932,7 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5591,16 +5946,16 @@
         <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5619,16 +5974,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5639,57 +5994,57 @@
         <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>365</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>366</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>608</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>367</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5709,7 +6064,7 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5724,7 +6079,7 @@
         <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>107</v>
@@ -5736,10 +6091,10 @@
         <v>111</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5760,7 +6115,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>108</v>
@@ -5772,10 +6127,10 @@
         <v>113</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5786,7 +6141,7 @@
         <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>97</v>
@@ -5798,101 +6153,101 @@
         <v>116</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>368</v>
+        <v>593</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>369</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>372</v>
+        <v>597</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>373</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>374</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>375</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5909,10 +6264,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5921,10 +6277,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>131</v>
@@ -5948,10 +6304,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
@@ -5962,10 +6318,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>51</v>
@@ -5976,16 +6332,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>556</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6020,7 +6376,7 @@
         <v>117</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>120</v>
@@ -6041,10 +6397,10 @@
         <v>111</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -6068,7 +6424,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>124</v>
@@ -6089,10 +6445,10 @@
         <v>113</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -6103,7 +6459,7 @@
         <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -6124,18 +6480,18 @@
         <v>116</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>611</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6150,24 +6506,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>612</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6182,21 +6538,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>613</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6211,13 +6567,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +6591,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -6246,16 +6602,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6273,13 +6629,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6287,43 +6643,43 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6343,7 +6699,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -6351,10 +6707,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6370,7 +6726,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -6378,42 +6734,42 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>294</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -6432,7 +6788,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -6446,7 +6802,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>89</v>
@@ -6466,7 +6822,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>90</v>
@@ -6480,7 +6836,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>92</v>
@@ -6488,46 +6844,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>382</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>579</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6558,13 +6914,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6572,13 +6928,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6587,10 +6943,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6598,35 +6954,35 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6658,13 +7014,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6672,13 +7028,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -6687,10 +7043,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -6698,35 +7054,35 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6748,9 +7104,9 @@
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6759,22 +7115,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6796,19 +7152,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6816,50 +7172,50 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>559</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6892,25 +7248,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6931,22 +7287,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -6954,22 +7310,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
@@ -6977,16 +7333,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>559</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>561</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -6995,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -7025,16 +7381,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -7052,13 +7408,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -7066,27 +7422,27 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>561</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7110,7 +7466,7 @@
     <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7119,10 +7475,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -7148,7 +7504,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -7162,10 +7518,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
@@ -7176,16 +7532,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>560</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -7211,7 +7567,7 @@
     <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7220,28 +7576,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>132</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>26</v>
@@ -7274,22 +7630,22 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
@@ -7300,28 +7656,28 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -7329,123 +7685,123 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>207</v>
+        <v>562</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>208</v>
+        <v>563</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>213</v>
+        <v>565</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>217</v>
+        <v>566</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>218</v>
+        <v>567</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>222</v>
+        <v>568</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>223</v>
+        <v>569</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>160</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -7464,7 +7820,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -7476,10 +7832,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -7505,13 +7861,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -7519,72 +7875,72 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>562</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>222</v>
+        <v>568</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/transformations-upgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D45119-DC38-4C99-85CB-69EC8EFC837B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7664532-1967-4A44-927F-4143DA01690B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="731" xr2:uid="{9E23536D-03D7-486C-92D0-E50AB185E4CC}"/>
   </bookViews>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="628">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="626">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -142,27 +139,9 @@
     <t>annotation</t>
   </si>
   <si>
-    <t>:leader</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
-    <t>:ExperimenterGroup</t>
-  </si>
-  <si>
-    <t>http://xmlns.com/foaf/0.1/Person</t>
-  </si>
-  <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -175,15 +154,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
@@ -202,30 +172,9 @@
     <t>region of interest</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:experimenterGroup</t>
-  </si>
-  <si>
-    <t>:regionOfInterest</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:RegionOfInterest</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -262,21 +211,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -286,15 +223,6 @@
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -304,12 +232,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -319,9 +241,6 @@
     <t>union</t>
   </si>
   <si>
-    <t>:union</t>
-  </si>
-  <si>
     <t>rdf:Bag</t>
   </si>
   <si>
@@ -331,12 +250,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotationValue</t>
-  </si>
-  <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -346,15 +259,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>:y</t>
-  </si>
-  <si>
-    <t>:x</t>
-  </si>
-  <si>
-    <t>:Point</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -364,33 +268,15 @@
     <t>width</t>
   </si>
   <si>
-    <t>:height</t>
-  </si>
-  <si>
-    <t>:width</t>
-  </si>
-  <si>
-    <t>:Rectangle</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
-    <t>:Label</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>:point</t>
-  </si>
-  <si>
-    <t>:Polygon</t>
-  </si>
-  <si>
     <t>Polyline</t>
   </si>
   <si>
@@ -400,18 +286,6 @@
     <t>marker start</t>
   </si>
   <si>
-    <t>:markerEnd</t>
-  </si>
-  <si>
-    <t>:markerStart</t>
-  </si>
-  <si>
-    <t>:Polyline</t>
-  </si>
-  <si>
-    <t>:Marker</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -427,21 +301,6 @@
     <t>y1</t>
   </si>
   <si>
-    <t>:x2</t>
-  </si>
-  <si>
-    <t>:y2</t>
-  </si>
-  <si>
-    <t>:x1</t>
-  </si>
-  <si>
-    <t>:y1</t>
-  </si>
-  <si>
-    <t>:Line</t>
-  </si>
-  <si>
     <t>http://xmlns.com/foaf/0.1/</t>
   </si>
   <si>
@@ -515,10 +374,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -527,15 +382,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Dataset</t>
-  </si>
-  <si>
-    <t>:Project</t>
-  </si>
-  <si>
-    <t>:dataset</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -545,9 +391,6 @@
     <t>Dataset</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -561,21 +404,6 @@
     <t>plate acquisition</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
-    <t>:plateAcquisition</t>
-  </si>
-  <si>
-    <t>:Plate</t>
-  </si>
-  <si>
-    <t>:Well</t>
-  </si>
-  <si>
-    <t>:PlateAcquisition</t>
-  </si>
-  <si>
     <t>plate:plate0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -603,21 +431,6 @@
     <t>well type</t>
   </si>
   <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:wellType</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
@@ -631,9 +444,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>:index</t>
-  </si>
-  <si>
     <t>Plate Acquision</t>
   </si>
   <si>
@@ -653,124 +463,93 @@
     <t>protocol</t>
   </si>
   <si>
-    <t>:screenType</t>
-  </si>
-  <si>
-    <t>:plate</t>
-  </si>
-  <si>
-    <t>:reagentSet</t>
-  </si>
-  <si>
-    <t>:protocol</t>
-  </si>
-  <si>
-    <t>:Screen</t>
-  </si>
-  <si>
-    <t>:ReagentSet</t>
+    <t>screen:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName0"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 0 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName1"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 1 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName2"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 2 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>screen:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"ScreenName3"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Screen 3 Description"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reagent Set</t>
+  </si>
+  <si>
+    <t>"Reagents Set XYZ"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reragents Set PQR"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reagents Set IJK"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Reagents Set AJP"@en</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagent:reagent3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reagent</t>
   </si>
   <si>
     <t>Protocol</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName0"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 0 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName1"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 1 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName2"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 2 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>screen:screen3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"ScreenName3"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Screen 3 Description"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reagent Set</t>
-  </si>
-  <si>
-    <t>:reagent</t>
-  </si>
-  <si>
-    <t>:Reagent</t>
-  </si>
-  <si>
-    <t>"Reagents Set XYZ"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reragents Set PQR"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reagents Set IJK"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Reagents Set AJP"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>reagent:reagent3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reagent</t>
-  </si>
-  <si>
-    <t>Protocol</t>
-  </si>
-  <si>
-    <t>:Protocol</t>
   </si>
   <si>
     <t>"Protocol Description Test0"@en</t>
@@ -900,9 +679,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -938,10 +714,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-1147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1046,9 +818,6 @@
     <t>rdf:li</t>
   </si>
   <si>
-    <t>:Shape</t>
-  </si>
-  <si>
     <t>[point:shape0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1149,85 +918,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontSize</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeDashArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeWidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-  </si>
-  <si>
-    <t>:FontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>transform</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:tramsform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>marker:arrow</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1268,14 +962,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1288,18 +974,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
@@ -1316,10 +990,6 @@
   </si>
   <si>
     <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1471,58 +1141,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Project:0</t>
   </si>
   <si>
@@ -1749,10 +1367,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[size:1pt]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1765,14 +1379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1781,18 +1387,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>font</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Affine Transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1821,39 +1419,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:a00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2265,6 +1831,506 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/transformations-upgrade/protocol/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Project</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PlateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ReagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExperimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:leader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>foaf:Person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:regionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:union</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Shape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeDashArray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeWidth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:tramsform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTransform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Marker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotationValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:screenType</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2693,402 +2759,402 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>284</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>523</v>
+        <v>396</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>524</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>540</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>527</v>
+        <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>541</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>528</v>
+        <v>401</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>529</v>
+        <v>402</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>543</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>530</v>
+        <v>403</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>544</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>545</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>532</v>
+        <v>405</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>546</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>533</v>
+        <v>406</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>547</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>534</v>
+        <v>407</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>548</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>549</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>535</v>
+        <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>550</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>536</v>
+        <v>409</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>551</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>537</v>
+        <v>410</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>538</v>
+        <v>411</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>553</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>554</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>539</v>
+        <v>412</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>555</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>616</v>
+        <v>489</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>617</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>619</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>620</v>
+        <v>493</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>623</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>624</v>
+        <v>497</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>626</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>625</v>
+        <v>498</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>627</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3114,72 +3180,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>529</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3205,96 +3271,96 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>569</v>
+        <v>442</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3323,30 +3389,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3357,115 +3423,115 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>442</v>
+        <v>328</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>448</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3493,189 +3559,189 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>532</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>515</v>
+        <v>388</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>515</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>337</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>572</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>573</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>574</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -3695,27 +3761,27 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3723,39 +3789,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>350</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>351</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>577</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3775,39 +3841,39 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3818,60 +3884,60 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>355</v>
+        <v>538</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>356</v>
+        <v>539</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>541</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>537</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>357</v>
+        <v>540</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>577</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="D5" s="1">
         <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="F5" s="1">
         <v>20</v>
@@ -3902,50 +3968,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3964,53 +4030,53 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4020,100 +4086,100 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>546</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>549</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>548</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4131,11 +4197,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -4144,51 +4210,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4206,108 +4272,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>363</v>
+        <v>551</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>403</v>
+        <v>555</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>404</v>
+        <v>556</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>406</v>
+        <v>558</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>407</v>
+        <v>559</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>408</v>
+        <v>560</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>409</v>
+        <v>561</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>410</v>
+        <v>562</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>411</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>545</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>402</v>
+        <v>554</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>413</v>
+        <v>563</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>412</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4325,32 +4391,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>578</v>
+        <v>451</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4369,32 +4435,32 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4403,76 +4469,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>566</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>265</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>584</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4499,24 +4565,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4525,48 +4591,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>503</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>502</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>504</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -4591,45 +4657,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1">
         <v>-1147483648</v>
@@ -4637,7 +4703,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1">
         <v>-1474836488</v>
@@ -4645,7 +4711,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1">
         <v>-2144364811</v>
@@ -4653,7 +4719,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1">
         <v>-2147483648</v>
@@ -4675,7 +4741,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -4683,24 +4749,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4709,45 +4775,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>570</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>571</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>81</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>569</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>581</v>
+        <v>454</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4755,13 +4821,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>583</v>
+        <v>456</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4769,13 +4835,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>585</v>
+        <v>458</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4796,128 +4862,129 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>365</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>366</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>482</v>
+        <v>368</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4942,145 +5009,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>293</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5097,65 +5164,65 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="17.3984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5172,90 +5239,90 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>319</v>
+        <v>576</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>320</v>
+        <v>577</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>321</v>
+        <v>578</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>322</v>
+        <v>580</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>327</v>
+        <v>585</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>329</v>
+        <v>587</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>330</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>587</v>
+        <v>460</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5269,10 +5336,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>588</v>
+        <v>461</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5281,25 +5348,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>272</v>
+        <v>197</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>517</v>
+        <v>390</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -5307,7 +5374,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>589</v>
+        <v>462</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5318,7 +5385,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5329,7 +5396,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>591</v>
+        <v>464</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5340,7 +5407,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5351,7 +5418,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5362,7 +5429,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>594</v>
+        <v>467</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5373,7 +5440,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>595</v>
+        <v>468</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5384,7 +5451,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5395,7 +5462,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5406,7 +5473,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>598</v>
+        <v>471</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5417,7 +5484,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>599</v>
+        <v>472</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5428,7 +5495,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>600</v>
+        <v>473</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5454,7 +5521,9 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
@@ -5463,39 +5532,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5509,72 +5578,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>590</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>591</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>101</v>
+        <v>592</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>102</v>
+        <v>593</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>322</v>
+        <v>580</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>329</v>
+        <v>587</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>335</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>589</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>336</v>
+        <v>594</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>337</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>601</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5589,18 +5658,19 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="I5" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>602</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5614,39 +5684,39 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>502</v>
+        <v>383</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>503</v>
+        <v>384</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>504</v>
+        <v>385</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>505</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5658,57 +5728,57 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>506</v>
+        <v>597</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>507</v>
+        <v>598</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>508</v>
+        <v>599</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>509</v>
+        <v>600</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>511</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>602</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5743,45 +5813,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5793,60 +5863,60 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>590</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>591</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>322</v>
+        <v>580</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>498</v>
+        <v>582</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>329</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>603</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>336</v>
+        <v>594</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>476</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5855,21 +5925,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>604</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
-        <v>468</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>605</v>
+        <v>478</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>469</v>
+        <v>355</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -5878,15 +5948,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>606</v>
+        <v>479</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -5895,15 +5965,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>607</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5912,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5930,37 +6000,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5970,81 +6040,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>605</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>589</v>
+        <v>462</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>591</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>592</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6062,44 +6132,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6111,143 +6182,143 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>605</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>607</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>609</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>606</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>575</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>333</v>
+        <v>584</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>594</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>595</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>596</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>598</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>599</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>600</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -6274,24 +6345,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6300,48 +6371,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>507</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>504</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>508</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6359,53 +6430,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6420,78 +6492,78 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>611</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>612</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>122</v>
+        <v>613</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>123</v>
+        <v>614</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>114</v>
+        <v>607</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>113</v>
+        <v>609</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>326</v>
+        <v>584</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>610</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>611</v>
+        <v>484</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6506,24 +6578,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>612</v>
+        <v>485</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>477</v>
+        <v>363</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6538,21 +6610,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>613</v>
+        <v>486</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>364</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6567,13 +6639,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6590,33 +6662,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6625,61 +6697,61 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>325</v>
+        <v>615</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>323</v>
+        <v>617</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>324</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>616</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>338</v>
+        <v>618</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>586</v>
+        <v>459</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>614</v>
+        <v>487</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -6698,78 +6770,78 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>492</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>493</v>
+        <v>620</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>514</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>615</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6790,27 +6862,27 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6818,72 +6890,72 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>623</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>485</v>
+        <v>371</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>615</v>
+        <v>488</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6911,78 +6983,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>522</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7011,78 +7083,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>520</v>
+        <v>393</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>517</v>
+        <v>390</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>522</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>518</v>
+        <v>391</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>522</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -7112,35 +7184,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7148,74 +7220,74 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>510</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>162</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>511</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>165</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>559</v>
+        <v>432</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>557</v>
+        <v>430</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7235,7 +7307,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -7245,33 +7317,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7283,66 +7355,66 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>518</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>176</v>
+        <v>519</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>177</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>511</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>515</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>559</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7351,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7378,24 +7450,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7404,45 +7476,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>507</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>183</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>508</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>561</v>
+        <v>434</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7472,76 +7544,76 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>560</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7573,47 +7645,47 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7623,185 +7695,185 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>625</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>523</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>193</v>
+        <v>526</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>195</v>
+        <v>525</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>196</v>
+        <v>527</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>562</v>
+        <v>435</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>427</v>
+        <v>313</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>564</v>
+        <v>437</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>567</v>
+        <v>440</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>568</v>
+        <v>441</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>569</v>
+        <v>442</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>558</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7829,118 +7901,118 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>210</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>211</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>562</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>564</v>
+        <v>437</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>431</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>566</v>
+        <v>439</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>568</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
